--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_21.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_21.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_0</t>
+          <t>model_1_21_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995569242126313</v>
+        <v>0.9489569702098228</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8295248625408932</v>
+        <v>0.7417732565215331</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8201937213120005</v>
+        <v>0.7660980200941765</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9986680517273523</v>
+        <v>0.9326876317699101</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001844314793642395</v>
+        <v>0.1789318810599648</v>
       </c>
       <c r="G2" t="n">
-        <v>1.139968029154877</v>
+        <v>1.726763422665331</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6431566330999088</v>
+        <v>0.8366538197070879</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005561700726368514</v>
+        <v>0.1713614809941052</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0873121678969327</v>
+        <v>1.299298611288484</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04294548630115154</v>
+        <v>0.4230034054945241</v>
       </c>
       <c r="L2" t="n">
-        <v>1.028356850391596</v>
+        <v>0.9304945977325247</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04362183478065821</v>
+        <v>0.4296652862827897</v>
       </c>
       <c r="N2" t="n">
-        <v>142.5912949120601</v>
+        <v>37.44150019661515</v>
       </c>
       <c r="O2" t="n">
-        <v>283.9264674552765</v>
+        <v>74.40608378484097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_1</t>
+          <t>model_1_21_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995964693245183</v>
+        <v>0.949107063329881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8289656017118193</v>
+        <v>0.7412909655359847</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8199012301754424</v>
+        <v>0.7646272771447969</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9986926333271643</v>
+        <v>0.935299473215222</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001679707209683494</v>
+        <v>0.1784057280393352</v>
       </c>
       <c r="G3" t="n">
-        <v>1.143707808894054</v>
+        <v>1.729988504706439</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6442028569357667</v>
+        <v>0.8419145819584427</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00545905747487219</v>
+        <v>0.164712346073454</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08288795469524925</v>
+        <v>1.305377603034484</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04098423123206649</v>
+        <v>0.4223810223475188</v>
       </c>
       <c r="L3" t="n">
-        <v>1.02582596323083</v>
+        <v>0.9306989798534551</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04162969190477087</v>
+        <v>0.429033101223374</v>
       </c>
       <c r="N3" t="n">
-        <v>142.7782715614116</v>
+        <v>37.44738990301573</v>
       </c>
       <c r="O3" t="n">
-        <v>284.113444104628</v>
+        <v>74.41197349124155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_5</t>
+          <t>model_1_21_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995964195463182</v>
+        <v>0.9491810852240572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8284784810310176</v>
+        <v>0.7404282227876258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8203177528077383</v>
+        <v>0.7631508067989242</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9982702137069196</v>
+        <v>0.9378524338380509</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00167991441277065</v>
+        <v>0.178146243506011</v>
       </c>
       <c r="G4" t="n">
-        <v>1.146965187129559</v>
+        <v>1.73575766943728</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6427129796314138</v>
+        <v>0.8471958307749599</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007222918397246585</v>
+        <v>0.1582131078984994</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06607943785412058</v>
+        <v>1.311266627129678</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04098675899324866</v>
+        <v>0.4220737417869193</v>
       </c>
       <c r="L4" t="n">
-        <v>1.025829149035637</v>
+        <v>0.9307997756242481</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04163225947566482</v>
+        <v>0.4287209813011129</v>
       </c>
       <c r="N4" t="n">
-        <v>142.7780248632882</v>
+        <v>37.45030094656443</v>
       </c>
       <c r="O4" t="n">
-        <v>284.1131974065045</v>
+        <v>74.41488453479025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_8</t>
+          <t>model_1_21_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995995176832939</v>
+        <v>0.949230980914904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8284531986985212</v>
+        <v>0.7401128913684045</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8204202374694263</v>
+        <v>0.7623818263142503</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9982292237416615</v>
+        <v>0.9390831056686634</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001667018334898335</v>
+        <v>0.1779713336337582</v>
       </c>
       <c r="G5" t="n">
-        <v>1.147134250203377</v>
+        <v>1.73786629208958</v>
       </c>
       <c r="H5" t="n">
-        <v>0.642346397938958</v>
+        <v>0.8499464293805881</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007394076635318987</v>
+        <v>0.1550801064448793</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05828694489141151</v>
+        <v>1.314250663527059</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04082913585784465</v>
+        <v>0.4218664879245069</v>
       </c>
       <c r="L5" t="n">
-        <v>1.025630868269189</v>
+        <v>0.9308677186926352</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04147215393344352</v>
+        <v>0.4285104633975453</v>
       </c>
       <c r="N5" t="n">
-        <v>142.7934373530694</v>
+        <v>37.45226557732174</v>
       </c>
       <c r="O5" t="n">
-        <v>284.1286098962858</v>
+        <v>74.41684916554756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_4</t>
+          <t>model_1_21_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9996014107165326</v>
+        <v>0.9496226740037621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8284471186731112</v>
+        <v>0.7389985403527235</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8201984251433965</v>
+        <v>0.757187765245117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9983183918842709</v>
+        <v>0.9464101392148341</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00165913853350423</v>
+        <v>0.1765982493659221</v>
       </c>
       <c r="G6" t="n">
-        <v>1.14717490736129</v>
+        <v>1.745317962462553</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6431398077677493</v>
+        <v>0.8685252846559131</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007021744966211273</v>
+        <v>0.1364271998130185</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06788665903297608</v>
+        <v>1.331846212272682</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04073252427120409</v>
+        <v>0.4202359448761161</v>
       </c>
       <c r="L6" t="n">
-        <v>1.025509714141911</v>
+        <v>0.9314010880051229</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04137402081088953</v>
+        <v>0.4268542409260874</v>
       </c>
       <c r="N6" t="n">
-        <v>142.8029135340763</v>
+        <v>37.46775580770332</v>
       </c>
       <c r="O6" t="n">
-        <v>284.1380860772927</v>
+        <v>74.43233939592915</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_2</t>
+          <t>model_1_21_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.99959222359539</v>
+        <v>0.9497961633242776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8283953213734273</v>
+        <v>0.7389938695438525</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8196338964472679</v>
+        <v>0.754901085504038</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9984035595889919</v>
+        <v>0.9489689453566323</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001697380170527575</v>
+        <v>0.1759900807170143</v>
       </c>
       <c r="G7" t="n">
-        <v>1.14752127614278</v>
+        <v>1.745349196182981</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6451590941805465</v>
+        <v>0.876704605500443</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006666117578168824</v>
+        <v>0.1299130803196065</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07492482874537332</v>
+        <v>1.339944017110854</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04119927390777142</v>
+        <v>0.4195117170199353</v>
       </c>
       <c r="L7" t="n">
-        <v>1.026097689895039</v>
+        <v>0.9316373287819951</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04184812128765433</v>
+        <v>0.4261186072051341</v>
       </c>
       <c r="N7" t="n">
-        <v>142.7573385855189</v>
+        <v>37.47465529018933</v>
       </c>
       <c r="O7" t="n">
-        <v>284.0925111287353</v>
+        <v>74.43923887841515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_7</t>
+          <t>model_1_21_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996176027624948</v>
+        <v>0.9497902605770017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8283440986615314</v>
+        <v>0.7388504326523953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8204527898351722</v>
+        <v>0.7546554740750937</v>
       </c>
       <c r="E8" t="n">
-        <v>0.99832770541468</v>
+        <v>0.9492452144256427</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001591738709910674</v>
+        <v>0.1760107728600524</v>
       </c>
       <c r="G8" t="n">
-        <v>1.147863802653088</v>
+        <v>1.746308359336622</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6422299600141794</v>
+        <v>0.8775831433404079</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006982855266134307</v>
+        <v>0.1292097641525589</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05956667985835662</v>
+        <v>1.340814659523827</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03989660022997791</v>
+        <v>0.4195363784703925</v>
       </c>
       <c r="L8" t="n">
-        <v>1.024473423200334</v>
+        <v>0.9316292909984704</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04052493180163152</v>
+        <v>0.4261436570487835</v>
       </c>
       <c r="N8" t="n">
-        <v>142.8858566639416</v>
+        <v>37.47442015277018</v>
       </c>
       <c r="O8" t="n">
-        <v>284.221029207158</v>
+        <v>74.439003740996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_9</t>
+          <t>model_1_21_0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995995755893177</v>
+        <v>0.949820471414739</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8283431367107239</v>
+        <v>0.7380736877515086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8204251308057615</v>
+        <v>0.7519604344309044</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9982254572241673</v>
+        <v>0.9519772245382081</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001666777299528854</v>
+        <v>0.1759048684486769</v>
       </c>
       <c r="G9" t="n">
-        <v>1.147870235222566</v>
+        <v>1.751502456065432</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6423288947586188</v>
+        <v>0.887223143880296</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007409804155308385</v>
+        <v>0.1222547080270665</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05892513321826628</v>
+        <v>1.350174202493302</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04082618399420712</v>
+        <v>0.4194101434737564</v>
       </c>
       <c r="L9" t="n">
-        <v>1.025627162283669</v>
+        <v>0.9316704291604957</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04146915558090449</v>
+        <v>0.4260154339771391</v>
       </c>
       <c r="N9" t="n">
-        <v>142.7937265554037</v>
+        <v>37.4756239005113</v>
       </c>
       <c r="O9" t="n">
-        <v>284.1288990986201</v>
+        <v>74.44020748873712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_6</t>
+          <t>model_1_21_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995993381672915</v>
+        <v>0.9497711493035919</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8283392670908567</v>
+        <v>0.7379177798351475</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8203778993548342</v>
+        <v>0.7524387347784011</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9982642356084789</v>
+        <v>0.9515378203486309</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00166776557505078</v>
+        <v>0.1760777676312232</v>
       </c>
       <c r="G10" t="n">
-        <v>1.147896111388437</v>
+        <v>1.752545013020029</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6424978389199493</v>
+        <v>0.8855122912707482</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007247880623725409</v>
+        <v>0.1233733278982854</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06309231313496751</v>
+        <v>1.348619392813307</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04083828565269091</v>
+        <v>0.419616214690547</v>
       </c>
       <c r="L10" t="n">
-        <v>1.025642357293343</v>
+        <v>0.931603267136806</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04148144782841218</v>
+        <v>0.4262247506095985</v>
       </c>
       <c r="N10" t="n">
-        <v>142.7925410549162</v>
+        <v>37.47365903999002</v>
       </c>
       <c r="O10" t="n">
-        <v>284.1277135981326</v>
+        <v>74.43824262821583</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_3</t>
+          <t>model_1_21_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995991648642687</v>
+        <v>0.9497515410780737</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8280920005179927</v>
+        <v>0.7379154250655483</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8194181261752556</v>
+        <v>0.7528074999560248</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9983994970319587</v>
+        <v>0.9511868564176997</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001668486953510124</v>
+        <v>0.1761465044732688</v>
       </c>
       <c r="G11" t="n">
-        <v>1.149549584099736</v>
+        <v>1.752560759375181</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6459308919324553</v>
+        <v>0.8841932396126213</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006683081244750862</v>
+        <v>0.1242667996414618</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07356094030276263</v>
+        <v>1.347397198500405</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04084711683228234</v>
+        <v>0.4196981111147258</v>
       </c>
       <c r="L11" t="n">
-        <v>1.025653448686803</v>
+        <v>0.9315765665743982</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04149041809025424</v>
+        <v>0.4263079368205918</v>
       </c>
       <c r="N11" t="n">
-        <v>142.7916761581922</v>
+        <v>37.47287843685319</v>
       </c>
       <c r="O11" t="n">
-        <v>284.1268487014086</v>
+        <v>74.437462025079</v>
       </c>
     </row>
   </sheetData>
